--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2481713.530848462</v>
+        <v>2479461.451137255</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92.72329049755649</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>261.2824032917163</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>67.24416875037112</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>42.86209348694693</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>343.4798709087826</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>3.657500457873659</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>105.3657314403601</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>45.06776172308889</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>120.7307820829398</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506841</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380459</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187894</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444126</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>81.07546534818499</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,16 +1582,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>185.0663491738889</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701366</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318055</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,10 +1901,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701341</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.42721558712923</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098637</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.06560892427244</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>21.9028628750538</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>102.1557845699813</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333643</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>94.05355358057936</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,7 +4328,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.852659508903</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,16 +4410,16 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4522,16 +4522,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1091.613680441807</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1091.613680441807</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1091.613680441807</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2051.278283189675</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="C5" t="n">
-        <v>1682.315766249264</v>
+        <v>1518.851284880193</v>
       </c>
       <c r="D5" t="n">
-        <v>1324.050067642513</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>938.2618150442688</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>527.2759102546613</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>112.2034600996578</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4574,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450755</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189675</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2051.278283189675</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>880.2242361621301</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C7" t="n">
-        <v>711.2880532342232</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621301</v>
+        <v>1378.488599602889</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621301</v>
+        <v>1089.071429565929</v>
       </c>
       <c r="X7" t="n">
-        <v>880.2242361621301</v>
+        <v>861.0818786679114</v>
       </c>
       <c r="Y7" t="n">
-        <v>880.2242361621301</v>
+        <v>640.2892995243812</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>920.7766538636577</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>534.9884012654134</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>528.0429005162099</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>572.9069687101826</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>491.0125592675715</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107583</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072725</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812155</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812155</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6488,22 +6488,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245714</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>776.17510664033</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266882</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,31 +6601,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803936</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516141</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192468</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111702</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7002,28 +7002,28 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745235</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7075,22 +7075,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589157</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143764</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7309,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.067041434951</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.043492616109</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>197.0043242297712</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969311</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969311</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>270.906955875391</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>67.54000767002736</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.64330621514821</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.75554125013184</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187165</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>84.99383243580201</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372229673</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182161</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>43.26526345294991</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187583</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>46.24115926564453</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329898</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>798556.8700329899</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>798556.8700329899</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448192</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597546</v>
       </c>
       <c r="G2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="H2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="J2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="K2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597546</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>3.539624622135307e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>91573.95495316944</v>
+      </c>
+      <c r="C4" t="n">
         <v>91573.95495316942</v>
       </c>
-      <c r="C4" t="n">
-        <v>91573.95495316933</v>
-      </c>
       <c r="D4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.920181818</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="H4" t="n">
+        <v>12386.92018181814</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12386.92018181803</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="I4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12386.92018181822</v>
-      </c>
       <c r="M4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181823</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181823</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-891945.2695973358</v>
       </c>
       <c r="C6" t="n">
-        <v>436799.4761302561</v>
+        <v>436799.4761302569</v>
       </c>
       <c r="D6" t="n">
-        <v>436799.4761302569</v>
+        <v>436799.4761302568</v>
       </c>
       <c r="E6" t="n">
-        <v>186616.7029466743</v>
+        <v>186581.9650212382</v>
       </c>
       <c r="F6" t="n">
-        <v>512029.1647540294</v>
+        <v>511994.4268285937</v>
       </c>
       <c r="G6" t="n">
-        <v>512029.1647540295</v>
+        <v>511994.4268285945</v>
       </c>
       <c r="H6" t="n">
-        <v>512029.1647540297</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="I6" t="n">
-        <v>512029.1647540294</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="J6" t="n">
-        <v>294497.9623567521</v>
+        <v>294463.2244313164</v>
       </c>
       <c r="K6" t="n">
-        <v>512029.1647540296</v>
+        <v>511994.4268285937</v>
       </c>
       <c r="L6" t="n">
-        <v>512029.1647540294</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="M6" t="n">
-        <v>426974.1368185175</v>
+        <v>426939.3988930819</v>
       </c>
       <c r="N6" t="n">
-        <v>512029.1647540294</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="O6" t="n">
-        <v>512029.1647540297</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="P6" t="n">
-        <v>512029.1647540296</v>
+        <v>511994.4268285937</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,19 +26790,19 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>261.9597511231265</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>108.4486973867527</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>112.5878114315662</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>209.2755498368811</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11.20317071190033</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>290.9502639294468</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>43.2497415778523</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>207.0698816007391</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>290.1909435705136</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194508</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276458</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-2.410960718834983e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.672078567559044e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-7.972429158561228e-12</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29673,7 +29673,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.025899448199198e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>567.4250434254218</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>538.5853835133116</v>
       </c>
       <c r="N15" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>241.387751759078</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32552,28 +32552,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,22 +32789,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33263,34 +33263,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305202</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558023</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067219</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832332</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236492</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565771</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>316.0872899694781</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>277.4567226539316</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>436.0833313420885</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912933</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.5501250924113</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561612</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113578</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236316015</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998999</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683797</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121327</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>173.4910455250337</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>138.9023428740574</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
